--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470122B-4496-4ECB-A836-8665337E8105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -23,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
   <si>
     <t>level_row</t>
   </si>
@@ -554,19 +547,16 @@
     <t>Tariff on ROW</t>
   </si>
   <si>
-    <t>Absolute</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>WFN: Total water footprint (Mm3/yr) - Blue</t>
+    <t>Petroleum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,7 +626,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -952,23 +942,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -982,36 +972,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9" t="s">
-        <v>174</v>
+      <c r="B2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1020,22 +1012,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1051,10 +1043,10 @@
         <v>67</v>
       </c>
       <c r="C2" s="1">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1062,19 +1054,19 @@
         <v>75</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1082,7 +1074,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1095,25 +1087,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.15625" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1153,10 +1145,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1173,36 +1165,36 @@
         <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1210,30 +1202,18 @@
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C3 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Indeces!$A$2:$A$72</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Indeces!$B$2:$B$55</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>E3 C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1242,24 +1222,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1296,24 +1276,24 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1321,13 +1301,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1340,21 +1320,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.9453125" customWidth="1"/>
-    <col min="2" max="2" width="56.89453125" customWidth="1"/>
-    <col min="3" max="3" width="47.20703125" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1365,10 +1345,10 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1359,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1390,7 +1370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1381,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +1392,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1423,7 +1403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1414,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1425,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1458,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1469,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1500,7 +1480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1491,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1522,7 +1502,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1544,7 +1524,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1535,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1566,7 +1546,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1577,7 +1557,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1599,7 +1579,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1621,7 +1601,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1632,7 +1612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1643,7 +1623,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1634,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1665,7 +1645,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1676,7 +1656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1687,7 +1667,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1698,7 +1678,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1709,7 +1689,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1720,7 +1700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1731,7 +1711,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1742,7 +1722,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1753,7 +1733,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1764,7 +1744,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1772,7 +1752,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1780,7 +1760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1788,7 +1768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1796,7 +1776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1804,7 +1784,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1812,7 +1792,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1820,7 +1800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1828,7 +1808,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1836,7 +1816,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1824,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1852,7 +1832,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1860,7 +1840,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +1848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1876,7 +1856,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1884,7 +1864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1892,7 +1872,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1900,7 +1880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1908,87 +1888,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>

--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470122B-4496-4ECB-A836-8665337E8105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -18,6 +17,7 @@
     <sheet name="Z" sheetId="4" r:id="rId3"/>
     <sheet name="VA" sheetId="5" r:id="rId4"/>
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
+    <sheet name="main" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="217">
   <si>
     <t>level_row</t>
   </si>
@@ -547,17 +547,146 @@
     <t>Tariff on ROW</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Petroleum</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Cost of delivery</t>
+  </si>
+  <si>
+    <t>Lagenda</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Reference Matrix</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Cost of the machine</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Modeled</t>
+  </si>
+  <si>
+    <t>Metals &amp; Machine investment</t>
+  </si>
+  <si>
+    <t>Transport investment</t>
+  </si>
+  <si>
+    <t>Productivity increase</t>
+  </si>
+  <si>
+    <t>Decrease in Water Footprint</t>
+  </si>
+  <si>
+    <t>kSh</t>
+  </si>
+  <si>
+    <t>Number of smallholders covered by each machine</t>
+  </si>
+  <si>
+    <t>Number of smallholders</t>
+  </si>
+  <si>
+    <t>Country Coffee Profile: Kenya, International Coffee Organization (2019)</t>
+  </si>
+  <si>
+    <t>Share of coffee to total products</t>
+  </si>
+  <si>
+    <t>Increase in use of Petroleum weighted</t>
+  </si>
+  <si>
+    <t>Decrease in Unskilled labour weighted</t>
+  </si>
+  <si>
+    <t>Decrease in Water Footprint weighted</t>
+  </si>
+  <si>
+    <t>Required power for the machine</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Efficiency of the machine</t>
+  </si>
+  <si>
+    <t>kton</t>
+  </si>
+  <si>
+    <t>Coffee produced each year</t>
+  </si>
+  <si>
+    <t>ton/h</t>
+  </si>
+  <si>
+    <t>Capacity of the machine (ton coffee per hour)</t>
+  </si>
+  <si>
+    <t>High rainfall share</t>
+  </si>
+  <si>
+    <t>Hours of working of each machine</t>
+  </si>
+  <si>
+    <t>Num of machines</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Primary energy required by each machine</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase in use of Petroleum </t>
+  </si>
+  <si>
+    <t>Heating value petroleum</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>Density petroleum</t>
+  </si>
+  <si>
+    <t>Price petroleum in Kenya</t>
+  </si>
+  <si>
+    <t>kSh/L</t>
+  </si>
+  <si>
+    <t>kg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease in Unskilled labour </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,8 +702,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,8 +767,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -602,11 +800,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -628,6 +881,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,23 +1236,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="2" max="2" width="22.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -972,12 +1266,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -985,25 +1279,23 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1012,22 +1304,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1043,10 +1335,11 @@
         <v>67</v>
       </c>
       <c r="C2" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>main!C21</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1054,19 +1347,20 @@
         <v>75</v>
       </c>
       <c r="C3" s="1">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f>main!C22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1074,7 +1368,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1087,25 +1381,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="2" max="2" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1145,10 +1439,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>-main!C23</f>
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1168,33 +1463,34 @@
         <v>7</v>
       </c>
       <c r="G3" s="5">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>main!C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1203,13 +1499,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>C3 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1222,24 +1518,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.15625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1273,27 +1569,28 @@
         <v>7</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f>main!C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1301,13 +1598,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1320,21 +1617,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.83984375" customWidth="1"/>
+    <col min="3" max="3" width="47.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1344,11 +1641,9 @@
       <c r="C1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1370,7 +1665,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1381,7 +1676,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1392,7 +1687,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1403,7 +1698,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1709,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1720,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1731,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1447,7 +1742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1458,7 +1753,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +1764,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +1775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1491,7 +1786,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1513,7 +1808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1524,7 +1819,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1830,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1546,7 +1841,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +1852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1568,7 +1863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1579,7 +1874,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1590,7 +1885,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1896,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1612,7 +1907,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +1918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1634,7 +1929,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1645,7 +1940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1656,7 +1951,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1667,7 +1962,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1678,7 +1973,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1984,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1700,7 +1995,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1711,7 +2006,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1722,7 +2017,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1733,7 +2028,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1744,7 +2039,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1752,7 +2047,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1760,7 +2055,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1768,7 +2063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1776,7 +2071,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1784,7 +2079,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1792,7 +2087,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1800,7 +2095,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1808,7 +2103,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1816,7 +2111,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1824,7 +2119,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1832,7 +2127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1840,7 +2135,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1848,7 +2143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1856,7 +2151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1864,7 +2159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1872,7 +2167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1880,7 +2175,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1888,87 +2183,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -1976,4 +2271,385 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.68359375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.62890625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="28">
+        <v>155</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="28">
+        <v>500</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="28">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="28">
+        <v>9.1082999999999997E-2</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="17"/>
+      <c r="B8" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="28">
+        <v>42</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="28">
+        <v>45</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.107</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="17"/>
+      <c r="B14" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="28">
+        <v>-0.85</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="31">
+        <f>C8*1000*C9/C18/C10</f>
+        <v>88.2</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="32"/>
+      <c r="B18" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="31">
+        <f>C5/C4</f>
+        <v>600</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="32"/>
+      <c r="B19" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="31">
+        <f>C17*C7*0.3</f>
+        <v>29.106000000000002</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="32"/>
+      <c r="B20" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="31">
+        <f>C19*3600/1000*C18/C11/C12*C13</f>
+        <v>186.86052000000001</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="30">
+        <f>C18*C2/1000</f>
+        <v>93</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="30">
+        <f>C18*C3/1000</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="30">
+        <f>C14*C6</f>
+        <v>-7.7420549999999991E-2</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A17:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="225">
   <si>
     <t>level_row</t>
   </si>
@@ -680,6 +680,30 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease in Unskilled labour </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>MSh</t>
+  </si>
+  <si>
+    <t>Z***</t>
+  </si>
+  <si>
+    <t>*** We have to aslo define a shock on the supply-use matrix directly for the options which had a zero initial value like petroleum!</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -888,19 +912,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -918,6 +933,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1385,7 +1409,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1460,11 +1484,11 @@
         <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="G3" s="5">
         <f>main!C24</f>
-        <v>0</v>
+        <v>1.7019816743159999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1620,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2275,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2311,337 +2335,363 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="25">
         <v>155</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>5</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="25">
         <v>500</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <v>300000</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="25">
         <v>9.1082999999999997E-2</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="25">
         <v>42</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="25">
         <v>0.63</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>0.5</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>45</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="25">
         <v>0.8</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="25">
         <v>0.107</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="25">
         <v>-0.85</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="26">
         <v>0.3</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="28">
         <f>C8*1000*C9/C18/C10</f>
         <v>88.2</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="32"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="28">
         <f>C5/C4</f>
         <v>600</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="32"/>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="28">
         <f>C17*C7*0.3</f>
         <v>29.106000000000002</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="32"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="28">
         <f>C19*3600/1000*C18/C11/C12*C13</f>
         <v>186.86052000000001</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="27">
         <f>C18*C2/1000</f>
         <v>93</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="D21" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="27">
         <f>C18*C3/1000</f>
         <v>3</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="D22" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="27">
         <v>0.02</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="C24" s="27">
+        <f>C20/1000*C6</f>
+        <v>1.7019816743159999E-2</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="27">
         <f>C14*C6</f>
         <v>-7.7420549999999991E-2</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="10" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1545,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2301,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="231">
   <si>
     <t>level_row</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Tariff on ROW</t>
   </si>
   <si>
-    <t>Petroleum</t>
-  </si>
-  <si>
     <t>Inputs</t>
   </si>
   <si>
@@ -704,6 +701,27 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>WFN: Total water footprint (Mm3/yr) - Blue</t>
+  </si>
+  <si>
+    <t>Aggregated</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Agreggated</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>400-500</t>
+  </si>
+  <si>
+    <t>0.107-0.112</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1282,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1295,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1303,7 +1321,10 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <f>main!C26</f>
+        <v>-7.0957409331033561E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -1360,7 +1381,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C21</f>
-        <v>93</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1372,7 +1393,7 @@
       </c>
       <c r="C3" s="1">
         <f>main!C22</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1406,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1420,10 +1441,12 @@
     <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.15625" style="1"/>
+    <col min="7" max="7" width="9.15625" style="1"/>
+    <col min="8" max="8" width="10.05078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1466,8 +1492,11 @@
         <f>-main!C23</f>
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1484,24 +1513,27 @@
         <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="5">
         <f>main!C24</f>
-        <v>1.7019816743159999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1841543533333332</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1543,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1559,7 +1591,7 @@
     <col min="6" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1575,8 +1607,11 @@
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1594,19 +1629,22 @@
       </c>
       <c r="F2" s="2">
         <f>main!C25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>-5.0087583057200165E-3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -2299,398 +2337,436 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19.68359375" style="11" customWidth="1"/>
     <col min="2" max="2" width="81.62890625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="C2" s="25">
         <v>155</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="18"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>187</v>
+      </c>
       <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31"/>
       <c r="B3" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="25">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="18"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>187</v>
+      </c>
       <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31"/>
       <c r="B4" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="25">
-        <v>500</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="18"/>
+        <v>400</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31"/>
       <c r="B5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="25">
+        <v>800000</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="25">
-        <v>300000</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="31"/>
       <c r="B6" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="25">
-        <v>9.1082999999999997E-2</v>
+        <v>8.3479305095333606E-2</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31"/>
       <c r="B7" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="18"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="31"/>
       <c r="B8" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="25">
-        <v>42</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="18"/>
+        <v>42.037999999999997</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>198</v>
+      </c>
       <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31"/>
       <c r="B9" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="25">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="31"/>
       <c r="B10" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="25">
         <v>0.5</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="18"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>200</v>
+      </c>
       <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31"/>
       <c r="B11" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="25">
         <v>45</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="18"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>210</v>
+      </c>
       <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31"/>
       <c r="B12" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="25">
         <v>0.8</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>214</v>
+      </c>
       <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31"/>
       <c r="B13" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.109</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="25">
-        <v>0.107</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="31"/>
       <c r="B14" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="25">
         <v>-0.85</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="31"/>
       <c r="B15" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="25"/>
+        <v>215</v>
+      </c>
+      <c r="C15" s="25">
+        <v>-0.06</v>
+      </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="26">
         <v>0.3</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="28">
         <f>C8*1000*C9/C18/C10</f>
-        <v>88.2</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="24"/>
+        <v>27.3247</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>205</v>
+      </c>
       <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="32"/>
       <c r="B18" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="28">
         <f>C5/C4</f>
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="32"/>
       <c r="B19" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="28">
+        <f>C17*C7/C16</f>
+        <v>100.19056666666668</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="28">
-        <f>C17*C7*0.3</f>
-        <v>29.106000000000002</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="32"/>
       <c r="B20" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="28">
         <f>C19*3600/1000*C18/C11/C12*C13</f>
-        <v>186.86052000000001</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="24"/>
+        <v>2184.1543533333333</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>187</v>
+      </c>
       <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>183</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>184</v>
       </c>
       <c r="C21" s="27">
         <f>C18*C2/1000</f>
-        <v>93</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>310</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="27">
         <f>C18*C3/1000</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="27">
         <v>0.02</v>
       </c>
       <c r="D23" s="27"/>
-      <c r="E23" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="27"/>
+      <c r="F23" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="27">
-        <f>C20/1000*C6</f>
-        <v>1.7019816743159999E-2</v>
-      </c>
-      <c r="D24" s="27" t="s">
+        <f>C20/1000</f>
+        <v>2.1841543533333332</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="27"/>
+        <v>193</v>
+      </c>
+      <c r="C25" s="27">
+        <f>C15*C6</f>
+        <v>-5.0087583057200165E-3</v>
+      </c>
       <c r="D25" s="27"/>
-      <c r="E25" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="27"/>
+      <c r="F25" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="27">
         <f>C14*C6</f>
-        <v>-7.7420549999999991E-2</v>
+        <v>-7.0957409331033561E-2</v>
       </c>
       <c r="D26" s="27"/>
-      <c r="E26" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="27"/>
+      <c r="F26" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A2194B-840D-404A-8E34-B3ABE5B498D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -19,17 +20,25 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="236">
   <si>
     <t>level_row</t>
   </si>
@@ -610,9 +619,6 @@
     <t>Increase in use of Petroleum weighted</t>
   </si>
   <si>
-    <t>Decrease in Unskilled labour weighted</t>
-  </si>
-  <si>
     <t>Decrease in Water Footprint weighted</t>
   </si>
   <si>
@@ -643,9 +649,6 @@
     <t>Hours of working of each machine</t>
   </si>
   <si>
-    <t>Num of machines</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
@@ -676,9 +679,6 @@
     <t>kg/L</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease in Unskilled labour </t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -703,9 +703,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>WFN: Total water footprint (Mm3/yr) - Blue</t>
-  </si>
-  <si>
     <t>Aggregated</t>
   </si>
   <si>
@@ -722,12 +719,39 @@
   </si>
   <si>
     <t>0.107-0.112</t>
+  </si>
+  <si>
+    <t>Functional Unit</t>
+  </si>
+  <si>
+    <t>Productivity increase due to 100% new machines (not spoiling the cerry)</t>
+  </si>
+  <si>
+    <t>Maximum number of machines</t>
+  </si>
+  <si>
+    <t>Number of machines</t>
+  </si>
+  <si>
+    <t>Useful life of the pulping machines</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Increase in Capital (agriculture) weighted</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>WFN: Total water footprint (Mm3/yr) - Green</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -933,9 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -964,6 +985,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,23 +1314,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="22.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1308,12 +1344,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1321,26 +1357,26 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <f>main!C26</f>
-        <v>-7.0957409331033561E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="38">
+        <f>main!C29</f>
+        <v>-4.2499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1349,22 +1385,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1380,11 +1416,11 @@
         <v>67</v>
       </c>
       <c r="C2" s="1">
-        <f>main!C21</f>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f>main!C24</f>
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1392,20 +1428,20 @@
         <v>75</v>
       </c>
       <c r="C3" s="1">
-        <f>main!C22</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f>main!C25</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1413,7 +1449,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1426,27 +1462,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="1"/>
-    <col min="8" max="8" width="10.05078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.15625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1466,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1489,14 +1525,14 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <f>-main!C23</f>
-        <v>-0.02</v>
+        <f>-main!C26</f>
+        <v>-1.0000000000000001E-5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1513,40 +1549,40 @@
         <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="5">
+        <f>main!C27</f>
+        <v>1.0019056666666668E-2</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="5">
-        <f>main!C24</f>
-        <v>2.1841543533333332</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1555,13 +1591,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>C3 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1574,24 +1610,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1608,15 +1644,15 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1625,34 +1661,34 @@
         <v>92</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="F2" s="2">
-        <f>main!C25</f>
-        <v>-5.0087583057200165E-3</v>
+        <f>main!C28</f>
+        <v>1.55E-2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1660,13 +1696,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1679,21 +1715,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.83984375" customWidth="1"/>
-    <col min="3" max="3" width="47.15625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +1741,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1716,7 +1752,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1763,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1749,7 +1785,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1760,7 +1796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1771,7 +1807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1782,7 +1818,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1829,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1851,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1826,7 +1862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1848,7 +1884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1859,7 +1895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1870,7 +1906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1881,7 +1917,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1892,7 +1928,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1939,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1914,7 +1950,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1925,7 +1961,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1936,7 +1972,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1947,7 +1983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1958,7 +1994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1969,7 +2005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1980,7 +2016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1991,7 +2027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2002,7 +2038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2013,7 +2049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2024,7 +2060,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2035,7 +2071,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2046,7 +2082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2057,7 +2093,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2068,7 +2104,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2079,7 +2115,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2090,7 +2126,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2101,7 +2137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2109,7 +2145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2117,7 +2153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2125,7 +2161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2141,7 +2177,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2149,7 +2185,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2157,7 +2193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2165,7 +2201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2173,7 +2209,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2181,7 +2217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2189,7 +2225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2197,7 +2233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2205,7 +2241,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2213,7 +2249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2221,7 +2257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2229,7 +2265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2237,7 +2273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2245,87 +2281,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2336,24 +2372,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.62890625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2364,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>176</v>
@@ -2376,404 +2413,459 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>155</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>187</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>5</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
       <c r="B4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>400</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="25"/>
+      <c r="D4" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="24"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>800000</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
       <c r="B6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>8.3479305095333606E-2</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
       <c r="B7" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>195</v>
-      </c>
-      <c r="C7" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
-        <v>196</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
       <c r="B8" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="25">
+        <v>198</v>
+      </c>
+      <c r="C8" s="24">
         <v>42.037999999999997</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
-        <v>198</v>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
       <c r="B9" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="25">
+        <v>201</v>
+      </c>
+      <c r="C9" s="24">
         <v>0.65</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
       <c r="B10" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="25">
+        <v>200</v>
+      </c>
+      <c r="C10" s="24">
         <v>0.5</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
-        <v>200</v>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
       <c r="B11" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="25">
+        <v>207</v>
+      </c>
+      <c r="C11" s="24">
         <v>45</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
-        <v>210</v>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
       <c r="B12" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="25">
+        <v>209</v>
+      </c>
+      <c r="C12" s="24">
         <v>0.8</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
-        <v>214</v>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
       <c r="B13" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="25">
+        <v>210</v>
+      </c>
+      <c r="C13" s="24">
         <v>0.109</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>213</v>
+      <c r="D13" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="31"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
       <c r="B14" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>-0.85</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
       <c r="B15" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="25">
-        <v>-0.06</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+        <v>231</v>
+      </c>
+      <c r="C15" s="24">
+        <v>10</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24" t="s">
+        <v>232</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="26">
+      <c r="B17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="25">
         <v>0.3</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B19" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="27">
+        <f>C8*1000*C9/C20/C10</f>
+        <v>27.3247</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="28">
-        <f>C8*1000*C9/C18/C10</f>
-        <v>27.3247</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="32"/>
-      <c r="B18" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="27">
         <f>C5/C4</f>
         <v>2000</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="32"/>
-      <c r="B19" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="28">
-        <f>C17*C7/C16</f>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="27">
+        <f>C18*C16/C20</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="37">
+        <f>C19*C7/C17</f>
         <v>100.19056666666668</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="32"/>
-      <c r="B20" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="28">
-        <f>C19*3600/1000*C18/C11/C12*C13</f>
-        <v>2184.1543533333333</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="27">
-        <f>C18*C2/1000</f>
-        <v>310</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="29"/>
-      <c r="B22" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="27">
-        <f>C18*C3/1000</f>
-        <v>10</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="37">
+        <f>C22*3600/1000*C16/C11/C12</f>
+        <v>10.019056666666668</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="26">
+        <f>C16*C2/1000</f>
+        <v>0.155</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="29"/>
-      <c r="B23" s="20" t="s">
+      <c r="F24" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="26">
+        <f>C16*C3/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="27">
-        <v>0.02</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="29"/>
-      <c r="B24" s="20" t="s">
+      <c r="C26" s="26">
+        <f>C21</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="27">
-        <f>C20/1000</f>
-        <v>2.1841543533333332</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29"/>
-      <c r="B25" s="20" t="s">
+      <c r="C27" s="36">
+        <f>C23/1000</f>
+        <v>1.0019056666666668E-2</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="36">
+        <f>C24/C15</f>
+        <v>1.55E-2</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="27">
-        <f>C15*C6</f>
-        <v>-5.0087583057200165E-3</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29"/>
-      <c r="B26" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="27">
-        <f>C14*C6</f>
-        <v>-7.0957409331033561E-2</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="21" t="s">
+      <c r="C29" s="36">
+        <f>C14*C16/C20</f>
+        <v>-4.2499999999999998E-4</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="10" t="s">
-        <v>221</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A17:A20"/>
+  <mergeCells count="4">
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A2194B-840D-404A-8E34-B3ABE5B498D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3693E29F-8406-4705-B799-CAAF1DD77A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,6 +974,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,20 +998,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,9 +1357,9 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="33">
         <f>main!C29</f>
-        <v>-4.2499999999999998E-4</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C24</f>
-        <v>0.155</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C3" s="1">
         <f>main!C25</f>
-        <v>5.0000000000000001E-3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C26</f>
-        <v>-1.0000000000000001E-5</v>
+        <v>-0.02</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>222</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="G3" s="5">
         <f>main!C27</f>
-        <v>1.0019056666666668E-2</v>
+        <v>20.038113333333335</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>222</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F2" s="2">
         <f>main!C28</f>
-        <v>1.55E-2</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>222</v>
@@ -2376,7 +2376,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="35" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2431,7 +2431,7 @@
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="17" t="s">
         <v>188</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="17" t="s">
         <v>191</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="17" t="s">
         <v>194</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="17" t="s">
         <v>198</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="17" t="s">
         <v>201</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="17" t="s">
         <v>200</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="17" t="s">
         <v>207</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="17" t="s">
         <v>209</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="17" t="s">
         <v>210</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="17" t="s">
         <v>186</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="17" t="s">
         <v>231</v>
       </c>
@@ -2622,12 +2622,12 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="30" t="s">
         <v>230</v>
       </c>
       <c r="C16" s="24">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -2635,7 +2635,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="38" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -2650,7 +2650,7 @@
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="16" t="s">
         <v>228</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="37" t="s">
         <v>181</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -2681,8 +2681,8 @@
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="29" t="s">
         <v>229</v>
       </c>
       <c r="C20" s="27">
@@ -2695,13 +2695,13 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="29" t="s">
         <v>185</v>
       </c>
       <c r="C21" s="27">
         <f>C18*C16/C20</f>
-        <v>1.0000000000000001E-5</v>
+        <v>0.02</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -2709,11 +2709,11 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="32">
         <f>C19*C7/C17</f>
         <v>100.19056666666668</v>
       </c>
@@ -2725,13 +2725,13 @@
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="32">
         <f>C22*3600/1000*C16/C11/C12</f>
-        <v>10.019056666666668</v>
+        <v>20038.113333333335</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
@@ -2741,7 +2741,7 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="34" t="s">
         <v>182</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C24" s="26">
         <f>C16*C2/1000</f>
-        <v>0.155</v>
+        <v>310</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26" t="s">
@@ -2761,13 +2761,13 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C25" s="26">
         <f>C16*C3/1000</f>
-        <v>5.0000000000000001E-3</v>
+        <v>10</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26" t="s">
@@ -2779,13 +2779,13 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="26">
         <f>C21</f>
-        <v>1.0000000000000001E-5</v>
+        <v>0.02</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
@@ -2797,13 +2797,13 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="31">
         <f>C23/1000</f>
-        <v>1.0019056666666668E-2</v>
+        <v>20.038113333333335</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26" t="s">
@@ -2815,13 +2815,13 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="31">
         <f>C24/C15</f>
-        <v>1.55E-2</v>
+        <v>31</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26" t="s">
@@ -2833,13 +2833,13 @@
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="31">
         <f>C14*C16/C20</f>
-        <v>-4.2499999999999998E-4</v>
+        <v>-0.85</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -2851,7 +2851,7 @@
       <c r="G29" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="28" t="s">
         <v>227</v>
       </c>
     </row>

--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3693E29F-8406-4705-B799-CAAF1DD77A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B947BC7F-E827-4148-93AB-FD15BA57F584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/kenya_sut/Database/Shock_pulp.xlsx
+++ b/kenya_sut/Database/Shock_pulp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B947BC7F-E827-4148-93AB-FD15BA57F584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52F5CF-4C9F-4DAB-AF40-9954EB1762E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1321,16 +1321,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1359,19 +1359,19 @@
       </c>
       <c r="E2" s="33">
         <f>main!C29</f>
-        <v>-0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-2.9750000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1392,15 +1392,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1417,10 +1417,10 @@
       </c>
       <c r="C2" s="1">
         <f>main!C24</f>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1429,19 +1429,19 @@
       </c>
       <c r="C3" s="1">
         <f>main!C25</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1469,20 +1469,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1526,13 +1526,13 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C26</f>
-        <v>-0.02</v>
+        <v>-7.0000000000000007E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1553,23 +1553,23 @@
       </c>
       <c r="G3" s="5">
         <f>main!C27</f>
-        <v>20.038113333333335</v>
+        <v>7.0133396666666667E-2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1617,17 +1617,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1665,22 +1665,22 @@
       </c>
       <c r="F2" s="2">
         <f>main!C28</f>
-        <v>31</v>
+        <v>0.1085</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1722,14 +1722,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2281,87 +2281,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2376,21 +2376,21 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>172</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
@@ -2445,7 +2445,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="17" t="s">
         <v>188</v>
@@ -2460,7 +2460,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
@@ -2475,7 +2475,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="17" t="s">
         <v>191</v>
@@ -2488,7 +2488,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="17" t="s">
         <v>194</v>
@@ -2503,7 +2503,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="17" t="s">
         <v>198</v>
@@ -2518,7 +2518,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="17" t="s">
         <v>201</v>
@@ -2531,7 +2531,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="17" t="s">
         <v>200</v>
@@ -2546,7 +2546,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="17" t="s">
         <v>207</v>
@@ -2561,7 +2561,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="17" t="s">
         <v>209</v>
@@ -2576,7 +2576,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="17" t="s">
         <v>210</v>
@@ -2593,7 +2593,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="17" t="s">
         <v>186</v>
@@ -2606,7 +2606,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="17" t="s">
         <v>231</v>
@@ -2621,20 +2621,20 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="30" t="s">
         <v>230</v>
       </c>
       <c r="C16" s="24">
-        <v>2000</v>
+        <v>7</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>180</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="16" t="s">
         <v>228</v>
@@ -2662,7 +2662,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>181</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="29" t="s">
         <v>229</v>
@@ -2694,21 +2694,21 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="29" t="s">
         <v>185</v>
       </c>
       <c r="C21" s="27">
         <f>C18*C16/C20</f>
-        <v>0.02</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="22" t="s">
         <v>204</v>
@@ -2724,14 +2724,14 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="22" t="s">
         <v>206</v>
       </c>
       <c r="C23" s="32">
         <f>C22*3600/1000*C16/C11/C12</f>
-        <v>20038.113333333335</v>
+        <v>70.13339666666667</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
@@ -2740,7 +2740,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>182</v>
       </c>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C24" s="26">
         <f>C16*C2/1000</f>
-        <v>310</v>
+        <v>1.085</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26" t="s">
@@ -2760,14 +2760,14 @@
       </c>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C25" s="26">
         <f>C16*C3/1000</f>
-        <v>10</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26" t="s">
@@ -2778,14 +2778,14 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="26">
         <f>C21</f>
-        <v>0.02</v>
+        <v>7.0000000000000007E-5</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
@@ -2796,14 +2796,14 @@
       </c>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="19" t="s">
         <v>192</v>
       </c>
       <c r="C27" s="31">
         <f>C23/1000</f>
-        <v>20.038113333333335</v>
+        <v>7.0133396666666667E-2</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26" t="s">
@@ -2814,14 +2814,14 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="31">
         <f>C24/C15</f>
-        <v>31</v>
+        <v>0.1085</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26" t="s">
@@ -2832,14 +2832,14 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="19" t="s">
         <v>193</v>
       </c>
       <c r="C29" s="31">
         <f>C14*C16/C20</f>
-        <v>-0.85</v>
+        <v>-2.9750000000000002E-3</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -2850,12 +2850,12 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>218</v>
       </c>
